--- a/Assets/Test/Test2.xlsx
+++ b/Assets/Test/Test2.xlsx
@@ -12,18 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>51576</t>
   </si>
 </sst>
 </file>
@@ -69,7 +60,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -79,17 +70,6 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <headerFooter/>
